--- a/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,108 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r527284859-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>7593752</t>
+  </si>
+  <si>
+    <t>527284859</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Room was neat and clean. Has been updated recently. Had TV, refrigerator and microwave. Owners were very nice. Very nice room for the price. I'm very glad I stayed here. I think people that leave negative reviews for places like this are expecting Embassy Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Room was neat and clean. Has been updated recently. Had TV, refrigerator and microwave. Owners were very nice. Very nice room for the price. I'm very glad I stayed here. I think people that leave negative reviews for places like this are expecting Embassy Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r491022972-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>491022972</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Clean but a little scary!</t>
+  </si>
+  <si>
+    <t>We came to town last minute and because of the construction in the area booked the first place we came to that we knew was pet friendly. The motel is really not that bad. Clean and a comfortable bed and the lady at front desk was nice, but the people lurking around and the area ended up being a little scary. My daughter and I were alone with our dog and did not feel comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>We came to town last minute and because of the construction in the area booked the first place we came to that we knew was pet friendly. The motel is really not that bad. Clean and a comfortable bed and the lady at front desk was nice, but the people lurking around and the area ended up being a little scary. My daughter and I were alone with our dog and did not feel comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r470194759-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>470194759</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rundown Mess. </t>
+  </si>
+  <si>
+    <t>The place has been remodeled and its still a rundown mess. Staying here for just the one night thankfully. The area is pretty in line with how run down this hotel is. The TV is blurry and the wifi is out. All in all its not even been a few hours and this was already a complete waste of money. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>The place has been remodeled and its still a rundown mess. Staying here for just the one night thankfully. The area is pretty in line with how run down this hotel is. The TV is blurry and the wifi is out. All in all its not even been a few hours and this was already a complete waste of money. More</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>March 25, 2017</t>
   </si>
 </sst>
 </file>
@@ -648,6 +750,368 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rob R</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Room was neat and clean. Has been updated recently. Had TV, refrigerator and microwave. Owners were very nice. Very nice room for the price. I'm very glad I stayed here. I think people that leave negative reviews for places like this are expecting Embassy Suites.More</t>
   </si>
   <si>
+    <t>petite40ro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r491022972-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
   </si>
   <si>
     <t>We came to town last minute and because of the construction in the area booked the first place we came to that we knew was pet friendly. The motel is really not that bad. Clean and a comfortable bed and the lady at front desk was nice, but the people lurking around and the area ended up being a little scary. My daughter and I were alone with our dog and did not feel comfortable.More</t>
+  </si>
+  <si>
+    <t>Sonofbaldo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r470194759-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
@@ -754,43 +763,47 @@
       <c r="A2" t="n">
         <v>27290</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -802,56 +815,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27290</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -869,56 +886,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27290</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169445</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -930,56 +951,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27290</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -991,56 +1016,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27290</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1058,41 +1087,45 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27290</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169444</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1108,9 +1141,6 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
   </sheetData>
 </worksheet>

--- a/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_582.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,72 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Rob R</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r578181097-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>7593752</t>
+  </si>
+  <si>
+    <t>578181097</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Best value for the buck. We paid $50 and the room was clean and modern. Motel 6 has new rooms?! Who knew? The service was fantastic as well. The couple at the front gave us info on nearby attractions. We took a Lyft to Billy Bobs our first night and an Uber to downtown the next. Perfectly located between the two. Best Motel 6 I've stayed at to date. Remember folks, this is a motel 6, not a Hampton Inn. If you want to pay $200 a night, then this is not the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Best value for the buck. We paid $50 and the room was clean and modern. Motel 6 has new rooms?! Who knew? The service was fantastic as well. The couple at the front gave us info on nearby attractions. We took a Lyft to Billy Bobs our first night and an Uber to downtown the next. Perfectly located between the two. Best Motel 6 I've stayed at to date. Remember folks, this is a motel 6, not a Hampton Inn. If you want to pay $200 a night, then this is not the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r571648309-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>571648309</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Basic But Decent</t>
+  </si>
+  <si>
+    <t>‘Utilitarian’ is the word that comes to mind for this motel. The furnishings are out of a youth summer camp but the room was clean and everything was functional. It seems like a decent value. Yes, the parking lot is lit up brighter than AT&amp;T Stadium for a Monday night game, but the room curtains are heavy and it wasn’t a problem. The stomping around until 2 am in the room above was a problem, though, so if I stayed here again, it would be on the second floor. This place seems to be run by a couple. The woman was very nice. The man doesn’t seem to like his job.MoreShow less</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>‘Utilitarian’ is the word that comes to mind for this motel. The furnishings are out of a youth summer camp but the room was clean and everything was functional. It seems like a decent value. Yes, the parking lot is lit up brighter than AT&amp;T Stadium for a Monday night game, but the room curtains are heavy and it wasn’t a problem. The stomping around until 2 am in the room above was a problem, though, so if I stayed here again, it would be on the second floor. This place seems to be run by a couple. The woman was very nice. The man doesn’t seem to like his job.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r527284859-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>7593752</t>
-  </si>
-  <si>
     <t>527284859</t>
   </si>
   <si>
@@ -192,9 +243,6 @@
     <t>Room was neat and clean. Has been updated recently. Had TV, refrigerator and microwave. Owners were very nice. Very nice room for the price. I'm very glad I stayed here. I think people that leave negative reviews for places like this are expecting Embassy Suites.More</t>
   </si>
   <si>
-    <t>petite40ro</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r491022972-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,9 +273,6 @@
     <t>We came to town last minute and because of the construction in the area booked the first place we came to that we knew was pet friendly. The motel is really not that bad. Clean and a comfortable bed and the lady at front desk was nice, but the people lurking around and the area ended up being a little scary. My daughter and I were alone with our dog and did not feel comfortable.More</t>
   </si>
   <si>
-    <t>Sonofbaldo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r470194759-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -255,10 +300,49 @@
     <t>The place has been remodeled and its still a rundown mess. Staying here for just the one night thankfully. The area is pretty in line with how run down this hotel is. The TV is blurry and the wifi is out. All in all its not even been a few hours and this was already a complete waste of money. More</t>
   </si>
   <si>
-    <t>06/16/2018</t>
-  </si>
-  <si>
-    <t>March 25, 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r463810594-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>463810594</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>CLOSE TO STOCKYARDS</t>
+  </si>
+  <si>
+    <t>property was older but really nice refurbish job on rooms, I really like the vinyl flooring instead of the carpet and the tile for the bathroom, fresh paint and linens, very refreshing!!! The staff was nice and the grounds were well maintained. Just a short drive to the Stockyards made it very handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>thetravelguy55, General Manager at Motel 6 Fort Worth - Northside, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>property was older but really nice refurbish job on rooms, I really like the vinyl flooring instead of the carpet and the tile for the bathroom, fresh paint and linens, very refreshing!!! The staff was nice and the grounds were well maintained. Just a short drive to the Stockyards made it very handy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d7593752-r463281276-Motel_6_Fort_Worth_Northside-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>463281276</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Cowtown Marathon 2017</t>
+  </si>
+  <si>
+    <t>My daughter ran this marathon and I went to support and give my encouragement.  I spent the night before the race at this Motel 6 and it was adequate for an overnight in Fort Worth.  I had a reservation and check in was fine.The rooms are far enough from the interstate and street that there wasn't any traffic noise.  Being a Motel 6 the room was simple and it was clean but I found 2 items (a small sticker and a clear round protective cover from something like a makeup compact) on the floor that would have been swept away when the floor was swept.  The bed was a king size which was comfortable but the 3 pillows were rather flat and there wasn't a spare blanket in the room (I probably should have asked for one before going to bed).There was a microwave and mini-fridge but I didn't open or use either one.  No coffee pot which was a drag.Someone did come and knock loudly on the door 3 times in the middle of the night.  The safety lock on the upper part of the door didn't work and that gave me a few minutes of extreme awareness.  When I didn't answer the person went away.I would stay again for a quick trip with no frills.MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter ran this marathon and I went to support and give my encouragement.  I spent the night before the race at this Motel 6 and it was adequate for an overnight in Fort Worth.  I had a reservation and check in was fine.The rooms are far enough from the interstate and street that there wasn't any traffic noise.  Being a Motel 6 the room was simple and it was clean but I found 2 items (a small sticker and a clear round protective cover from something like a makeup compact) on the floor that would have been swept away when the floor was swept.  The bed was a king size which was comfortable but the 3 pillows were rather flat and there wasn't a spare blanket in the room (I probably should have asked for one before going to bed).There was a microwave and mini-fridge but I didn't open or use either one.  No coffee pot which was a drag.Someone did come and knock loudly on the door 3 times in the middle of the night.  The safety lock on the upper part of the door didn't work and that gave me a few minutes of extreme awareness.  When I didn't answer the person went away.I would stay again for a quick trip with no frills.More</t>
   </si>
 </sst>
 </file>
@@ -763,47 +847,43 @@
       <c r="A2" t="n">
         <v>27290</v>
       </c>
-      <c r="B2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -815,131 +895,117 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27290</v>
       </c>
-      <c r="B3" t="n">
-        <v>169444</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27290</v>
       </c>
-      <c r="B4" t="n">
-        <v>169445</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>71</v>
-      </c>
-      <c r="J4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -951,195 +1017,275 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27290</v>
       </c>
-      <c r="B5" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" t="s">
-        <v>52</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27290</v>
       </c>
-      <c r="B6" t="n">
-        <v>169443</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="X6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="Y6" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27290</v>
       </c>
-      <c r="B7" t="n">
-        <v>169444</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27290</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
